--- a/assets/template/Template.xlsx
+++ b/assets/template/Template.xlsx
@@ -146,18 +146,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -196,48 +190,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,11 +619,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -646,11 +634,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -661,11 +649,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -676,11 +664,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -694,45 +682,45 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -746,18 +734,18 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="2" t="s">
         <v>23</v>
       </c>
@@ -790,11 +778,11 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
@@ -805,6 +793,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B20:D20"/>
@@ -815,27 +823,8 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>